--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Please select your gender</t>
   </si>
@@ -37,34 +37,95 @@
     <t>Submitted At</t>
   </si>
   <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>ww</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Interactivity of exhibit</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>Female</t>
   </si>
   <si>
-    <t>24</t>
+    <t>Ghjjkk</t>
+  </si>
+  <si>
+    <t>Jkll</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25
+</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>explanation of exhibit</t>
+  </si>
+  <si>
+    <t>Uoopkjhg</t>
+  </si>
+  <si>
+    <t>Uiikj</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>Knowledge</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Value for money</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>ssss</t>
-  </si>
-  <si>
-    <t>ghhdsd</t>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Quatity of exhibit</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>jhjhjh</t>
+  </si>
+  <si>
+    <t>hhj</t>
+  </si>
+  <si>
+    <t>hhjjh</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Hj</t>
+  </si>
+  <si>
+    <t>Rtu</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Op</t>
+  </si>
+  <si>
+    <t>Hf</t>
   </si>
 </sst>
 </file>
@@ -442,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
@@ -496,27 +557,27 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1">
-        <v>45310.16981121528</v>
+        <v>45320.42964043982</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -525,10 +586,140 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45320.47926789352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1">
-        <v>45310.47044230324</v>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45320.479864699075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45320.489508391205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45320.49206712963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45320.492871678245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45320.51076020833</v>
       </c>
     </row>
   </sheetData>

--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="66">
   <si>
     <t>Please select your gender</t>
   </si>
@@ -28,104 +28,187 @@
     <t>What could we improve?</t>
   </si>
   <si>
-    <t>Any suggestions or specific bad experience you would like to bring to our notice?</t>
-  </si>
-  <si>
-    <t>Any appreciation for a facilitator/ exhibit/ experience you had here today?</t>
-  </si>
-  <si>
     <t>Submitted At</t>
   </si>
   <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>ww</t>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Value for money</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Quatity of exhibit</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>Entertainment</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>explanation of exhibit</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Appu</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Interactivity of exhibit</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>Average</t>
   </si>
   <si>
-    <t>Interactivity of exhibit</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Ghjjkk</t>
-  </si>
-  <si>
-    <t>Jkll</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25
-</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Everything is fine</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>Uu</t>
+  </si>
+  <si>
+    <t>Quality of exhibit</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Worst</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
   <si>
     <t>Poor</t>
   </si>
   <si>
-    <t>explanation of exhibit</t>
-  </si>
-  <si>
-    <t>Uoopkjhg</t>
-  </si>
-  <si>
-    <t>Uiikj</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Knowledge</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Quatity of exhibit</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
-    <t>jhjhjh</t>
-  </si>
-  <si>
-    <t>hhj</t>
-  </si>
-  <si>
-    <t>hhjjh</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Hj</t>
-  </si>
-  <si>
-    <t>Rtu</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Op</t>
-  </si>
-  <si>
-    <t>Hf</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -503,18 +586,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F144"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="7" width="50" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,193 +615,2865 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1">
+        <v>45310.16981121528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1">
-        <v>45320.42964043982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F3" s="1">
+        <v>45320.489508391205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45321.507781423614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F5" s="1">
+        <v>45321.52472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45321.5254978125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45321.52611716435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45321.527012349536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45322.40241012731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45322.429456631944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45322.444767928246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45322.44623483796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45323.3033246875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45323.30802024306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1">
-        <v>45320.47926789352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45323.438345138886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45323.48596576389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45323.51909912037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45323.52857861111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45324.28412556713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45324.30986916667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45324.31147652778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45324.354983784724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45324.35526217593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45324.382231400465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45324.3832109838</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45324.38342100695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45324.39972357639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45324.4801641088</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45324.48043214121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45324.49830655093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="1">
+        <v>45324.499672777776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="1">
+        <v>45324.51502186342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="1">
+        <v>45325.274019386576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45325.27922592593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45325.27960041667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45325.28073337963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="1">
+        <v>45325.28104127315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="1">
+        <v>45325.281297002315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>45325.28519659722</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="1">
+        <v>45325.285666041666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="1">
+        <v>45325.28773398148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="1">
+        <v>45325.28799024306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="1">
+        <v>45325.30177614583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="1">
+        <v>45325.302856863425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="1">
+        <v>45325.30810892361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="1">
+        <v>45325.30832701389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="1">
+        <v>45325.32529800926</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="1">
+        <v>45325.32724387731</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="1">
+        <v>45325.3307380787</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="1">
+        <v>45325.33531460648</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="1">
+        <v>45325.35319460648</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="1">
+        <v>45325.35350520833</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="1">
+        <v>45325.354452534724</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1">
+        <v>45325.36889322917</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
+        <v>45325.37953331019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="1">
+        <v>45325.380012685186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="1">
+        <v>45325.39505349537</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="1">
+        <v>45325.403818692124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="1">
+        <v>45325.4042334375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="1">
+        <v>45325.40539890046</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="1">
+        <v>45325.40861965278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="1">
+        <v>45325.41549431713</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="1">
+        <v>45325.41595815972</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="1">
+        <v>45325.42022998843</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="1">
+        <v>45325.42159891204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="1">
+        <v>45325.42432857639</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" s="1">
+        <v>45325.42790070602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" s="1">
+        <v>45325.43037716435</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="1">
+        <v>45325.430763067125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1">
+        <v>45325.431020069445</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="1">
+        <v>45325.43187431713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="1">
+        <v>45325.433721863425</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="1">
+        <v>45325.43449652778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="1">
+        <v>45325.43467822917</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="1">
+        <v>45325.43964280093</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="1">
+        <v>45325.443036701385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="1">
+        <v>45325.44365136574</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="1">
+        <v>45325.44387886574</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="1">
+        <v>45325.44560724537</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="1">
+        <v>45325.44596670139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" s="1">
+        <v>45325.44714125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" s="1">
+        <v>45325.448751006945</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="1">
+        <v>45325.45188461806</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="1">
+        <v>45325.46814633102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="1">
+        <v>45325.470876273146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>52</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="1">
+        <v>45325.47255871528</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" s="1">
+        <v>45325.48335461806</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" s="1">
+        <v>45325.48356050926</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="1">
+        <v>45325.483822407405</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" s="1">
+        <v>45325.49080356481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="1">
+        <v>45325.49239865741</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" s="1">
+        <v>45325.49393722222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="1">
+        <v>45325.49452788194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F94" s="1">
+        <v>45325.497761597224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" s="1">
+        <v>45325.49799390046</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96" s="1">
+        <v>45325.51139321759</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" s="1">
+        <v>45325.512282083335</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F98" s="1">
+        <v>45325.51793582176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99" s="1">
+        <v>45325.52085666667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" s="1">
+        <v>45325.522564363426</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" s="1">
+        <v>45325.52457972222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="1">
+        <v>45325.52753381945</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" s="1">
+        <v>45325.537138287036</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F104" s="1">
+        <v>45325.55466768518</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>46</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>33</v>
+      </c>
+      <c r="F105" s="1">
+        <v>45325.559090891205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>33</v>
+      </c>
+      <c r="F106" s="1">
+        <v>45325.55990760417</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>33</v>
+      </c>
+      <c r="F107" s="1">
+        <v>45325.5635343287</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>27</v>
+      </c>
+      <c r="F108" s="1">
+        <v>45325.564049733795</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" s="1">
+        <v>45326.28053693287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" s="1">
+        <v>45326.28100559028</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" s="1">
+        <v>45326.28188026621</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>42</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" s="1">
+        <v>45326.28239690972</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" s="1">
+        <v>45326.28260295139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>64</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" s="1">
+        <v>45326.288479560186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>53</v>
+      </c>
+      <c r="C115" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" s="1">
+        <v>45326.29340443287</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>33</v>
+      </c>
+      <c r="F116" s="1">
+        <v>45326.29798476852</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>27</v>
+      </c>
+      <c r="F117" s="1">
+        <v>45326.32806671296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>33</v>
+      </c>
+      <c r="F118" s="1">
+        <v>45326.328623587964</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" s="1">
+        <v>45326.331514467594</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>27</v>
+      </c>
+      <c r="F120" s="1">
+        <v>45326.34009648148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>65</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>33</v>
+      </c>
+      <c r="F121" s="1">
+        <v>45326.343562800925</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>33</v>
+      </c>
+      <c r="F122" s="1">
+        <v>45326.34734020833</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>33</v>
+      </c>
+      <c r="F123" s="1">
+        <v>45326.38783994213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>56</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>33</v>
+      </c>
+      <c r="F124" s="1">
+        <v>45326.392302962966</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>33</v>
+      </c>
+      <c r="F125" s="1">
+        <v>45326.392620694445</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>46</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>33</v>
+      </c>
+      <c r="F126" s="1">
+        <v>45326.44211173611</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>56</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" s="1">
+        <v>45326.45377732639</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>33</v>
+      </c>
+      <c r="F128" s="1">
+        <v>45326.471839861115</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>33</v>
+      </c>
+      <c r="F129" s="1">
+        <v>45326.47206501158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" s="1">
+        <v>45326.47221950231</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F131" s="1">
+        <v>45326.47234746528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>29</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>33</v>
+      </c>
+      <c r="F132" s="1">
+        <v>45326.47263145834</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133" s="1">
+        <v>45326.47559318287</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B134" t="s">
+        <v>58</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>33</v>
+      </c>
+      <c r="F134" s="1">
+        <v>45326.48392663195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>29</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>33</v>
+      </c>
+      <c r="F135" s="1">
+        <v>45326.498992187495</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>53</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1">
-        <v>45320.479864699075</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F136" s="1">
+        <v>45326.50203533565</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137" t="s">
+        <v>20</v>
+      </c>
+      <c r="F137" s="1">
+        <v>45326.502480497686</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>33</v>
+      </c>
+      <c r="F138" s="1">
+        <v>45326.51440891204</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" t="s">
+        <v>46</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>27</v>
+      </c>
+      <c r="F139" s="1">
+        <v>45326.52212094907</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>27</v>
+      </c>
+      <c r="F140" s="1">
+        <v>45326.536537141204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>33</v>
+      </c>
+      <c r="F141" s="1">
+        <v>45326.54198689815</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>31</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="1">
+        <v>45326.544611053236</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1">
-        <v>45320.489508391205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1">
-        <v>45320.49206712963</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="1">
-        <v>45320.492871678245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="1">
-        <v>45320.51076020833</v>
+      <c r="C143" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>33</v>
+      </c>
+      <c r="F143" s="1">
+        <v>45326.560974629625</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>33</v>
+      </c>
+      <c r="F144" s="1">
+        <v>45326.56562761574</v>
       </c>
     </row>
   </sheetData>

--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="67">
   <si>
     <t>Please select your gender</t>
   </si>
@@ -34,181 +34,184 @@
     <t>Female</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Everything is fine</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Quality of exhibit</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
     <t>Knowledge</t>
   </si>
   <si>
-    <t>Good</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>explanation of exhibit</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>Value for money</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Quatity of exhibit</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Both</t>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Interactivity of exhibit</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>explanation of exhibit</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Worst</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>Appu</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>59</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Interactivity of exhibit</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Everything is fine</t>
-  </si>
-  <si>
-    <t>Prefer not to say</t>
-  </si>
-  <si>
-    <t>Uu</t>
-  </si>
-  <si>
-    <t>Quality of exhibit</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>19</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Worst</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Poor</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>61</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F136"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
@@ -633,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>45310.16981121528</v>
+        <v>45328.42686224537</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -653,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="1">
-        <v>45320.489508391205</v>
+        <v>45328.46389111111</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -667,13 +670,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
-        <v>45321.507781423614</v>
+        <v>45329.391941759255</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -684,16 +687,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1">
-        <v>45321.52472</v>
+        <v>45329.392135925926</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -701,39 +704,39 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1">
-        <v>45321.5254978125</v>
+        <v>45329.4994200463</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>45321.52611716435</v>
+        <v>45329.52401784722</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -741,19 +744,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" s="1">
-        <v>45321.527012349536</v>
+        <v>45330.53151217593</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -761,39 +764,39 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
-        <v>45322.40241012731</v>
+        <v>45330.53189759259</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="1">
-        <v>45322.429456631944</v>
+        <v>45330.532114375004</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -801,19 +804,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="1">
-        <v>45322.444767928246</v>
+        <v>45331.25648751158</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -821,19 +824,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1">
-        <v>45322.44623483796</v>
+        <v>45331.3372618287</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,24 +844,24 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>45323.3033246875</v>
+        <v>45331.34351171296</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -870,30 +873,30 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
-        <v>45323.30802024306</v>
+        <v>45331.42272290509</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1">
-        <v>45323.438345138886</v>
+        <v>45331.51771649305</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -901,19 +904,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1">
-        <v>45323.48596576389</v>
+        <v>45331.5244437037</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,19 +924,19 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1">
-        <v>45323.51909912037</v>
+        <v>45332.26426804398</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -941,59 +944,59 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1">
-        <v>45323.52857861111</v>
+        <v>45332.26498306713</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1">
-        <v>45324.28412556713</v>
+        <v>45332.27548059028</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1">
-        <v>45324.30986916667</v>
+        <v>45332.277929502314</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,19 +1004,19 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1">
-        <v>45324.31147652778</v>
+        <v>45332.28722370371</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1021,39 +1024,39 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="1">
-        <v>45324.354983784724</v>
+        <v>45332.29006248842</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
       <c r="F23" s="1">
-        <v>45324.35526217593</v>
+        <v>45332.2925441088</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1061,7 +1064,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1070,50 +1073,50 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1">
-        <v>45324.382231400465</v>
+        <v>45332.30558755787</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F25" s="1">
-        <v>45324.3832109838</v>
+        <v>45332.3058234375</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F26" s="1">
-        <v>45324.38342100695</v>
+        <v>45332.308195590274</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,7 +1124,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1130,10 +1133,10 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1">
-        <v>45324.39972357639</v>
+        <v>45332.308547141205</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1141,39 +1144,39 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1">
-        <v>45324.4801641088</v>
+        <v>45332.30881615741</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1">
-        <v>45324.48043214121</v>
+        <v>45332.31775806713</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,19 +1184,19 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1">
-        <v>45324.49830655093</v>
+        <v>45332.318922025464</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,19 +1204,19 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F31" s="1">
-        <v>45324.499672777776</v>
+        <v>45332.31981783565</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1221,19 +1224,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1">
-        <v>45324.51502186342</v>
+        <v>45332.32020810185</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1241,19 +1244,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F33" s="1">
-        <v>45325.274019386576</v>
+        <v>45332.33142159722</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,19 +1264,19 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1">
-        <v>45325.27922592593</v>
+        <v>45332.33962288195</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,19 +1284,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F35" s="1">
-        <v>45325.27960041667</v>
+        <v>45332.34959277778</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,19 +1304,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F36" s="1">
-        <v>45325.28073337963</v>
+        <v>45332.35850104167</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,19 +1324,19 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F37" s="1">
-        <v>45325.28104127315</v>
+        <v>45332.36218013889</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1341,19 +1344,19 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1">
-        <v>45325.281297002315</v>
+        <v>45332.36789274306</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1361,27 +1364,27 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="1">
-        <v>45325.28519659722</v>
+        <v>45332.37085719907</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -1390,30 +1393,30 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F40" s="1">
-        <v>45325.285666041666</v>
+        <v>45332.379974247684</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F41" s="1">
-        <v>45325.28773398148</v>
+        <v>45332.38046648148</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,119 +1424,119 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F42" s="1">
-        <v>45325.28799024306</v>
+        <v>45332.38673103009</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F43" s="1">
-        <v>45325.30177614583</v>
+        <v>45332.39143016204</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F44" s="1">
-        <v>45325.302856863425</v>
+        <v>45332.393999155094</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F45" s="1">
-        <v>45325.30810892361</v>
+        <v>45332.40049990741</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F46" s="1">
-        <v>45325.30832701389</v>
+        <v>45332.420905590276</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F47" s="1">
-        <v>45325.32529800926</v>
+        <v>45332.466127569445</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,19 +1544,19 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1">
-        <v>45325.32724387731</v>
+        <v>45332.46968890046</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,7 +1564,7 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -1570,38 +1573,38 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F49" s="1">
-        <v>45325.3307380787</v>
+        <v>45332.470186307866</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F50" s="1">
-        <v>45325.33531460648</v>
+        <v>45332.4713565625</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -1610,30 +1613,30 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F51" s="1">
-        <v>45325.35319460648</v>
+        <v>45332.482180694446</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F52" s="1">
-        <v>45325.35350520833</v>
+        <v>45332.488953078704</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,19 +1644,19 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F53" s="1">
-        <v>45325.354452534724</v>
+        <v>45332.49430978009</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1661,19 +1664,19 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="1">
-        <v>45325.36889322917</v>
+        <v>45332.499331747684</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,16 +1687,16 @@
         <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F55" s="1">
-        <v>45325.37953331019</v>
+        <v>45332.500682199076</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1701,7 +1704,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -1710,30 +1713,30 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F56" s="1">
-        <v>45325.380012685186</v>
+        <v>45332.501041180556</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F57" s="1">
-        <v>45325.39505349537</v>
+        <v>45332.508232754626</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,7 +1744,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -1750,30 +1753,30 @@
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F58" s="1">
-        <v>45325.403818692124</v>
+        <v>45332.514683692134</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F59" s="1">
-        <v>45325.4042334375</v>
+        <v>45332.51777420139</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,39 +1784,39 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F60" s="1">
-        <v>45325.40539890046</v>
+        <v>45332.51885612268</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F61" s="1">
-        <v>45325.40861965278</v>
+        <v>45332.51921211806</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,19 +1824,19 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F62" s="1">
-        <v>45325.41549431713</v>
+        <v>45332.519515567124</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,39 +1844,39 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F63" s="1">
-        <v>45325.41595815972</v>
+        <v>45332.532460752314</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1">
-        <v>45325.42022998843</v>
+        <v>45332.534069166664</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1881,19 +1884,19 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F65" s="1">
-        <v>45325.42159891204</v>
+        <v>45332.535388125005</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1901,19 +1904,19 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F66" s="1">
-        <v>45325.42432857639</v>
+        <v>45332.54188417824</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1921,27 +1924,27 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F67" s="1">
-        <v>45325.42790070602</v>
+        <v>45332.54226533565</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -1950,10 +1953,10 @@
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F68" s="1">
-        <v>45325.43037716435</v>
+        <v>45332.546689027775</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,19 +1964,19 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F69" s="1">
-        <v>45325.430763067125</v>
+        <v>45333.28082381944</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1981,19 +1984,19 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="1">
-        <v>45325.431020069445</v>
+        <v>45333.2836059375</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2001,19 +2004,19 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F71" s="1">
-        <v>45325.43187431713</v>
+        <v>45333.28384192129</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2021,19 +2024,19 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F72" s="1">
-        <v>45325.433721863425</v>
+        <v>45333.28678188658</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2041,39 +2044,39 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F73" s="1">
-        <v>45325.43449652778</v>
+        <v>45333.29859710648</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F74" s="1">
-        <v>45325.43467822917</v>
+        <v>45333.30082284722</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,19 +2084,19 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F75" s="1">
-        <v>45325.43964280093</v>
+        <v>45333.30328556713</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2101,19 +2104,19 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F76" s="1">
-        <v>45325.443036701385</v>
+        <v>45333.303591724536</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,119 +2124,119 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F77" s="1">
-        <v>45325.44365136574</v>
+        <v>45333.30390623843</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F78" s="1">
-        <v>45325.44387886574</v>
+        <v>45333.30428615741</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F79" s="1">
-        <v>45325.44560724537</v>
+        <v>45333.30478863426</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F80" s="1">
-        <v>45325.44596670139</v>
+        <v>45333.315139479164</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F81" s="1">
-        <v>45325.44714125</v>
+        <v>45333.32333644676</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F82" s="1">
-        <v>45325.448751006945</v>
+        <v>45333.33649585648</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2241,39 +2244,39 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F83" s="1">
-        <v>45325.45188461806</v>
+        <v>45333.34341077546</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F84" s="1">
-        <v>45325.46814633102</v>
+        <v>45333.34620349537</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2281,19 +2284,19 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F85" s="1">
-        <v>45325.470876273146</v>
+        <v>45333.34713043981</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2301,59 +2304,59 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F86" s="1">
-        <v>45325.47255871528</v>
+        <v>45333.35349392361</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F87" s="1">
-        <v>45325.48335461806</v>
+        <v>45333.35380135417</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F88" s="1">
-        <v>45325.48356050926</v>
+        <v>45333.36345243055</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,59 +2364,59 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F89" s="1">
-        <v>45325.483822407405</v>
+        <v>45333.363863935185</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F90" s="1">
-        <v>45325.49080356481</v>
+        <v>45333.36595761574</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E91" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F91" s="1">
-        <v>45325.49239865741</v>
+        <v>45333.366742384256</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2421,19 +2424,19 @@
         <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F92" s="1">
-        <v>45325.49393722222</v>
+        <v>45333.388624768515</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2441,19 +2444,19 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F93" s="1">
-        <v>45325.49452788194</v>
+        <v>45333.389412523145</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2461,27 +2464,27 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F94" s="1">
-        <v>45325.497761597224</v>
+        <v>45333.39209922454</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
@@ -2490,10 +2493,10 @@
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F95" s="1">
-        <v>45325.49799390046</v>
+        <v>45333.39248858797</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2501,39 +2504,39 @@
         <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F96" s="1">
-        <v>45325.51139321759</v>
+        <v>45333.3939665625</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F97" s="1">
-        <v>45325.512282083335</v>
+        <v>45333.40067505787</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2541,7 +2544,7 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s">
         <v>16</v>
@@ -2550,10 +2553,10 @@
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F98" s="1">
-        <v>45325.51793582176</v>
+        <v>45333.404259421295</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2561,19 +2564,19 @@
         <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F99" s="1">
-        <v>45325.52085666667</v>
+        <v>45333.40637034722</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2581,27 +2584,27 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F100" s="1">
-        <v>45325.522564363426</v>
+        <v>45333.40966546297</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -2610,21 +2613,21 @@
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F101" s="1">
-        <v>45325.52457972222</v>
+        <v>45333.41146020833</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
@@ -2633,115 +2636,115 @@
         <v>10</v>
       </c>
       <c r="F102" s="1">
-        <v>45325.52753381945</v>
+        <v>45333.41174773149</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
       </c>
       <c r="F103" s="1">
-        <v>45325.537138287036</v>
+        <v>45333.41695032407</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F104" s="1">
-        <v>45325.55466768518</v>
+        <v>45333.41735635417</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F105" s="1">
-        <v>45325.559090891205</v>
+        <v>45333.418103715274</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F106" s="1">
-        <v>45325.55990760417</v>
+        <v>45333.419413275464</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F107" s="1">
-        <v>45325.5635343287</v>
+        <v>45333.41974913194</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
@@ -2750,50 +2753,50 @@
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F108" s="1">
-        <v>45325.564049733795</v>
+        <v>45333.42318261574</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F109" s="1">
-        <v>45326.28053693287</v>
+        <v>45333.423575567125</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F110" s="1">
-        <v>45326.28100559028</v>
+        <v>45333.423995300924</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2801,19 +2804,19 @@
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F111" s="1">
-        <v>45326.28188026621</v>
+        <v>45333.424277048616</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2821,19 +2824,19 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C112" t="s">
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F112" s="1">
-        <v>45326.28239690972</v>
+        <v>45333.424581307874</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2841,19 +2844,19 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F113" s="1">
-        <v>45326.28260295139</v>
+        <v>45333.44486152778</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2861,39 +2864,39 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F114" s="1">
-        <v>45326.288479560186</v>
+        <v>45333.44808192129</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F115" s="1">
-        <v>45326.29340443287</v>
+        <v>45333.45620900463</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2901,19 +2904,19 @@
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F116" s="1">
-        <v>45326.29798476852</v>
+        <v>45333.45714399306</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -2921,39 +2924,39 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F117" s="1">
-        <v>45326.32806671296</v>
+        <v>45333.4614240625</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F118" s="1">
-        <v>45326.328623587964</v>
+        <v>45333.46377425926</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2961,7 +2964,7 @@
         <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -2970,30 +2973,30 @@
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F119" s="1">
-        <v>45326.331514467594</v>
+        <v>45333.46406953703</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F120" s="1">
-        <v>45326.34009648148</v>
+        <v>45333.47214884259</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3001,59 +3004,59 @@
         <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F121" s="1">
-        <v>45326.343562800925</v>
+        <v>45333.47668313657</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C122" t="s">
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F122" s="1">
-        <v>45326.34734020833</v>
+        <v>45333.47719651621</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F123" s="1">
-        <v>45326.38783994213</v>
+        <v>45333.48394997686</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3061,39 +3064,39 @@
         <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F124" s="1">
-        <v>45326.392302962966</v>
+        <v>45333.48454109953</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F125" s="1">
-        <v>45326.392620694445</v>
+        <v>45333.49053028935</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,39 +3104,39 @@
         <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F126" s="1">
-        <v>45326.44211173611</v>
+        <v>45333.4954353125</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F127" s="1">
-        <v>45326.45377732639</v>
+        <v>45333.50575923611</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3141,27 +3144,27 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F128" s="1">
-        <v>45326.471839861115</v>
+        <v>45333.51593203704</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C129" t="s">
         <v>16</v>
@@ -3170,30 +3173,30 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F129" s="1">
-        <v>45326.47206501158</v>
+        <v>45333.516921539354</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F130" s="1">
-        <v>45326.47221950231</v>
+        <v>45333.521992187496</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3201,19 +3204,19 @@
         <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
       </c>
       <c r="F131" s="1">
-        <v>45326.47234746528</v>
+        <v>45333.523073564815</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3221,59 +3224,59 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F132" s="1">
-        <v>45326.47263145834</v>
+        <v>45333.55978694445</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F133" s="1">
-        <v>45326.47559318287</v>
+        <v>45333.559994375</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C134" t="s">
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F134" s="1">
-        <v>45326.48392663195</v>
+        <v>45333.56028451389</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3281,199 +3284,39 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F135" s="1">
-        <v>45326.498992187495</v>
+        <v>45333.560772997684</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F136" s="1">
-        <v>45326.50203533565</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137" t="s">
-        <v>65</v>
-      </c>
-      <c r="C137" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137" t="s">
-        <v>31</v>
-      </c>
-      <c r="E137" t="s">
-        <v>20</v>
-      </c>
-      <c r="F137" s="1">
-        <v>45326.502480497686</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>14</v>
-      </c>
-      <c r="B138" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138" t="s">
-        <v>16</v>
-      </c>
-      <c r="D138" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" t="s">
-        <v>33</v>
-      </c>
-      <c r="F138" s="1">
-        <v>45326.51440891204</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139" t="s">
-        <v>46</v>
-      </c>
-      <c r="C139" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" t="s">
-        <v>27</v>
-      </c>
-      <c r="F139" s="1">
-        <v>45326.52212094907</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>6</v>
-      </c>
-      <c r="B140" t="s">
-        <v>15</v>
-      </c>
-      <c r="C140" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" t="s">
-        <v>27</v>
-      </c>
-      <c r="F140" s="1">
-        <v>45326.536537141204</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>14</v>
-      </c>
-      <c r="B141" t="s">
-        <v>52</v>
-      </c>
-      <c r="C141" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" t="s">
-        <v>33</v>
-      </c>
-      <c r="F141" s="1">
-        <v>45326.54198689815</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>14</v>
-      </c>
-      <c r="B142" t="s">
-        <v>59</v>
-      </c>
-      <c r="C142" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" t="s">
-        <v>31</v>
-      </c>
-      <c r="E142" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="1">
-        <v>45326.544611053236</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>14</v>
-      </c>
-      <c r="B143" t="s">
-        <v>23</v>
-      </c>
-      <c r="C143" t="s">
-        <v>18</v>
-      </c>
-      <c r="D143" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143" t="s">
-        <v>33</v>
-      </c>
-      <c r="F143" s="1">
-        <v>45326.560974629625</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" t="s">
-        <v>40</v>
-      </c>
-      <c r="C144" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144" t="s">
-        <v>33</v>
-      </c>
-      <c r="F144" s="1">
-        <v>45326.56562761574</v>
+        <v>45333.56113914352</v>
       </c>
     </row>
   </sheetData>
